--- a/Water_use_example/USGS_WU_percentage_MSQ.xlsx
+++ b/Water_use_example/USGS_WU_percentage_MSQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="3" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>ft3/s</t>
   </si>
@@ -209,12 +209,6 @@
   </si>
   <si>
     <t>Aquaculture</t>
-  </si>
-  <si>
-    <t>Section 1</t>
-  </si>
-  <si>
-    <t>Section 2</t>
   </si>
 </sst>
 </file>
@@ -224,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,14 +284,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -328,8 +314,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,401 +595,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B2" s="5">
         <f>USGS_national_WU_data!C2-USGS_national_WU_data!B2</f>
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C2" s="5">
         <f>USGS_national_WU_data!D2-USGS_national_WU_data!C2</f>
         <v>-6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D2" s="5">
         <f>USGS_national_WU_data!E2-USGS_national_WU_data!D2</f>
         <v>15</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E2" s="5">
         <f>USGS_national_WU_data!F2-USGS_national_WU_data!E2</f>
         <v>-4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F2" s="5">
         <f>USGS_national_WU_data!G2-USGS_national_WU_data!F2</f>
         <v>-54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B3" s="5">
         <f>USGS_national_WU_data!C3-USGS_national_WU_data!B3</f>
         <v>2.1000000000000014</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C3" s="5">
         <f>USGS_national_WU_data!D3-USGS_national_WU_data!C3</f>
         <v>1.5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D3" s="5">
         <f>USGS_national_WU_data!E3-USGS_national_WU_data!D3</f>
         <v>3.0999999999999943</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E3" s="5">
         <f>USGS_national_WU_data!F3-USGS_national_WU_data!E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F3" s="5">
         <f>USGS_national_WU_data!G3-USGS_national_WU_data!F3</f>
         <v>-2.2999999999999972</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B4" s="5">
         <f>USGS_national_WU_data!C4-USGS_national_WU_data!B4</f>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C4" s="5">
         <f>USGS_national_WU_data!D4-USGS_national_WU_data!C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D4" s="5">
         <f>USGS_national_WU_data!E4-USGS_national_WU_data!D4</f>
         <v>0.18999999999999995</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E4" s="5">
         <f>USGS_national_WU_data!F4-USGS_national_WU_data!E4</f>
         <v>0.12999999999999989</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F4" s="5">
         <f>USGS_national_WU_data!G4-USGS_national_WU_data!F4</f>
         <v>-0.10999999999999988</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B5" s="5">
         <f>USGS_national_WU_data!C5-USGS_national_WU_data!B5</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C5" s="5">
         <f>USGS_national_WU_data!D5-USGS_national_WU_data!C5</f>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D5" s="5">
         <f>USGS_national_WU_data!E5-USGS_national_WU_data!D5</f>
         <v>0.11000000000000032</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E5" s="5">
         <f>USGS_national_WU_data!F5-USGS_national_WU_data!E5</f>
         <v>-0.24000000000000021</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F5" s="5">
         <f>USGS_national_WU_data!G5-USGS_national_WU_data!F5</f>
         <v>-0.14999999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B6" s="5">
         <f>USGS_national_WU_data!C6-USGS_national_WU_data!B6</f>
         <v>-1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C6" s="5">
         <f>USGS_national_WU_data!D6-USGS_national_WU_data!C6</f>
         <v>-4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D6" s="5">
         <f>USGS_national_WU_data!E6-USGS_national_WU_data!D6</f>
         <v>9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E6" s="5">
         <f>USGS_national_WU_data!F6-USGS_national_WU_data!E6</f>
         <v>-12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F6" s="5">
         <f>USGS_national_WU_data!G6-USGS_national_WU_data!F6</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B7" s="5">
         <f>USGS_national_WU_data!C7-USGS_national_WU_data!B7</f>
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C7" s="5">
         <f>USGS_national_WU_data!D7-USGS_national_WU_data!C7</f>
         <v>-4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D7" s="5">
         <f>USGS_national_WU_data!E7-USGS_national_WU_data!D7</f>
         <v>5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E7" s="5">
         <f>USGS_national_WU_data!F7-USGS_national_WU_data!E7</f>
         <v>6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F7" s="5">
         <f>USGS_national_WU_data!G7-USGS_national_WU_data!F7</f>
         <v>-40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B8" s="5">
         <f>USGS_national_WU_data!C8-USGS_national_WU_data!B8</f>
         <v>-3.3000000000000007</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C8" s="5">
         <f>USGS_national_WU_data!D8-USGS_national_WU_data!C8</f>
         <v>-0.89999999999999858</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D8" s="5">
         <f>USGS_national_WU_data!E8-USGS_national_WU_data!D8</f>
         <v>-1.9000000000000021</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E8" s="5">
         <f>USGS_national_WU_data!F8-USGS_national_WU_data!E8</f>
         <v>-1.5999999999999979</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F8" s="5">
         <f>USGS_national_WU_data!G8-USGS_national_WU_data!F8</f>
         <v>-2.2000000000000011</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B9" s="5">
         <f>USGS_national_WU_data!C9-USGS_national_WU_data!B9</f>
         <v>1.4899999999999998</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C9" s="5">
         <f>USGS_national_WU_data!D9-USGS_national_WU_data!C9</f>
         <v>-1.3399999999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D9" s="5">
         <f>USGS_national_WU_data!E9-USGS_national_WU_data!D9</f>
         <v>0.57000000000000028</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E9" s="5">
         <f>USGS_national_WU_data!F9-USGS_national_WU_data!E9</f>
         <v>-0.33000000000000007</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F9" s="5">
         <f>USGS_national_WU_data!G9-USGS_national_WU_data!F9</f>
         <v>1.4900000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B10" s="5">
         <f>USGS_national_WU_data!C10-USGS_national_WU_data!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C10" s="5">
         <f>USGS_national_WU_data!D10-USGS_national_WU_data!C10</f>
         <v>0.98999999999999977</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D10" s="5">
         <f>USGS_national_WU_data!E10-USGS_national_WU_data!D10</f>
         <v>2.5500000000000003</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E10" s="5">
         <f>USGS_national_WU_data!F10-USGS_national_WU_data!E10</f>
         <v>3.0599999999999996</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F10" s="5">
         <f>USGS_national_WU_data!G10-USGS_national_WU_data!F10</f>
         <v>0.58000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B2/MissRiverQ!$D$2</f>
+        <v>1.8265350325661803E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C2/MissRiverQ!$D$2</f>
+        <v>-1.5656014564852973E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D2/MissRiverQ!$D$2</f>
+        <v>3.9140036412132428E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E2/MissRiverQ!$D$2</f>
+        <v>-1.0437343043235315E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F2/MissRiverQ!$D$2</f>
+        <v>-0.14090413108367675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4">
         <f>B3/MissRiverQ!$D$2</f>
-        <v>1.8265350325661803E-2</v>
+        <v>5.4796050976985439E-3</v>
       </c>
       <c r="C15" s="4">
         <f>C3/MissRiverQ!$D$2</f>
-        <v>-1.5656014564852973E-2</v>
+        <v>3.9140036412132432E-3</v>
       </c>
       <c r="D15" s="4">
         <f>D3/MissRiverQ!$D$2</f>
-        <v>3.9140036412132428E-2</v>
+        <v>8.0889408585073548E-3</v>
       </c>
       <c r="E15" s="4">
         <f>E3/MissRiverQ!$D$2</f>
-        <v>-1.0437343043235315E-2</v>
+        <v>2.6093357608088287E-3</v>
       </c>
       <c r="F15" s="4">
         <f>F3/MissRiverQ!$D$2</f>
-        <v>-0.14090413108367675</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-6.001472249860299E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4">
         <f>B4/MissRiverQ!$D$2</f>
-        <v>5.4796050976985439E-3</v>
+        <v>1.8265350325661877E-4</v>
       </c>
       <c r="C16" s="4">
         <f>C4/MissRiverQ!$D$2</f>
-        <v>3.9140036412132432E-3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4">
         <f>D4/MissRiverQ!$D$2</f>
-        <v>8.0889408585073548E-3</v>
+        <v>4.9577379455367733E-4</v>
       </c>
       <c r="E16" s="4">
         <f>E4/MissRiverQ!$D$2</f>
-        <v>2.6093357608088287E-3</v>
+        <v>3.3921364890514749E-4</v>
       </c>
       <c r="F16" s="4">
         <f>F4/MissRiverQ!$D$2</f>
-        <v>-6.001472249860299E-3</v>
+        <v>-2.8702693368897082E-4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
         <f>B5/MissRiverQ!$D$2</f>
-        <v>1.8265350325661877E-4</v>
+        <v>5.2186715216176619E-5</v>
       </c>
       <c r="C17" s="4">
         <f>C5/MissRiverQ!$D$2</f>
-        <v>0</v>
+        <v>7.8280072824264349E-5</v>
       </c>
       <c r="D17" s="4">
         <f>D5/MissRiverQ!$D$2</f>
-        <v>4.9577379455367733E-4</v>
+        <v>2.8702693368897202E-4</v>
       </c>
       <c r="E17" s="4">
         <f>E5/MissRiverQ!$D$2</f>
-        <v>3.3921364890514749E-4</v>
+        <v>-6.2624058259411945E-4</v>
       </c>
       <c r="F17" s="4">
         <f>F5/MissRiverQ!$D$2</f>
-        <v>-2.8702693368897082E-4</v>
+        <v>-3.914003641213241E-4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4">
         <f>B6/MissRiverQ!$D$2</f>
-        <v>5.2186715216176619E-5</v>
+        <v>-2.6093357608088287E-3</v>
       </c>
       <c r="C18" s="4">
         <f>C6/MissRiverQ!$D$2</f>
-        <v>7.8280072824264349E-5</v>
+        <v>-1.0437343043235315E-2</v>
       </c>
       <c r="D18" s="4">
         <f>D6/MissRiverQ!$D$2</f>
-        <v>2.8702693368897202E-4</v>
+        <v>2.3484021847279459E-2</v>
       </c>
       <c r="E18" s="4">
         <f>E6/MissRiverQ!$D$2</f>
-        <v>-6.2624058259411945E-4</v>
+        <v>-3.1312029129705946E-2</v>
       </c>
       <c r="F18" s="4">
         <f>F6/MissRiverQ!$D$2</f>
-        <v>-3.914003641213241E-4</v>
+        <v>-3.1312029129705946E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4">
         <f>B7/MissRiverQ!$D$2</f>
-        <v>-2.6093357608088287E-3</v>
+        <v>1.8265350325661803E-2</v>
       </c>
       <c r="C19" s="4">
         <f>C7/MissRiverQ!$D$2</f>
@@ -1013,120 +1011,94 @@
       </c>
       <c r="D19" s="4">
         <f>D7/MissRiverQ!$D$2</f>
-        <v>2.3484021847279459E-2</v>
+        <v>1.3046678804044145E-2</v>
       </c>
       <c r="E19" s="4">
         <f>E7/MissRiverQ!$D$2</f>
-        <v>-3.1312029129705946E-2</v>
+        <v>1.5656014564852973E-2</v>
       </c>
       <c r="F19" s="4">
         <f>F7/MissRiverQ!$D$2</f>
-        <v>-3.1312029129705946E-2</v>
+        <v>-0.10437343043235316</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
         <f>B8/MissRiverQ!$D$2</f>
-        <v>1.8265350325661803E-2</v>
+        <v>-8.6108080106691368E-3</v>
       </c>
       <c r="C20" s="4">
         <f>C8/MissRiverQ!$D$2</f>
-        <v>-1.0437343043235315E-2</v>
+        <v>-2.348402184727942E-3</v>
       </c>
       <c r="D20" s="4">
         <f>D8/MissRiverQ!$D$2</f>
-        <v>1.3046678804044145E-2</v>
+        <v>-4.9577379455367802E-3</v>
       </c>
       <c r="E20" s="4">
         <f>E8/MissRiverQ!$D$2</f>
-        <v>1.5656014564852973E-2</v>
+        <v>-4.1749372172941203E-3</v>
       </c>
       <c r="F20" s="4">
         <f>F8/MissRiverQ!$D$2</f>
-        <v>-0.10437343043235316</v>
+        <v>-5.7405386737794262E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4">
         <f>B9/MissRiverQ!$D$2</f>
-        <v>-8.6108080106691368E-3</v>
+        <v>3.8879102836051542E-3</v>
       </c>
       <c r="C21" s="4">
         <f>C9/MissRiverQ!$D$2</f>
-        <v>-2.348402184727942E-3</v>
+        <v>-3.4965099194838303E-3</v>
       </c>
       <c r="D21" s="4">
         <f>D9/MissRiverQ!$D$2</f>
-        <v>-4.9577379455367802E-3</v>
+        <v>1.4873213836610331E-3</v>
       </c>
       <c r="E21" s="4">
         <f>E9/MissRiverQ!$D$2</f>
-        <v>-4.1749372172941203E-3</v>
+        <v>-8.6108080106691372E-4</v>
       </c>
       <c r="F21" s="4">
         <f>F9/MissRiverQ!$D$2</f>
-        <v>-5.7405386737794262E-3</v>
+        <v>3.8879102836051555E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4">
         <f>B10/MissRiverQ!$D$2</f>
-        <v>3.8879102836051542E-3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4">
         <f>C10/MissRiverQ!$D$2</f>
-        <v>-3.4965099194838303E-3</v>
+        <v>2.5832424032007401E-3</v>
       </c>
       <c r="D22" s="4">
         <f>D10/MissRiverQ!$D$2</f>
-        <v>1.4873213836610331E-3</v>
+        <v>6.6538061900625143E-3</v>
       </c>
       <c r="E22" s="4">
         <f>E10/MissRiverQ!$D$2</f>
-        <v>-8.6108080106691372E-4</v>
+        <v>7.9845674280750144E-3</v>
       </c>
       <c r="F22" s="4">
         <f>F10/MissRiverQ!$D$2</f>
-        <v>3.8879102836051555E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B11/MissRiverQ!$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <f>C11/MissRiverQ!$D$2</f>
-        <v>2.5832424032007401E-3</v>
-      </c>
-      <c r="D23" s="4">
-        <f>D11/MissRiverQ!$D$2</f>
-        <v>6.6538061900625143E-3</v>
-      </c>
-      <c r="E23" s="4">
-        <f>E11/MissRiverQ!$D$2</f>
-        <v>7.9845674280750144E-3</v>
-      </c>
-      <c r="F23" s="4">
-        <f>F11/MissRiverQ!$D$2</f>
         <v>1.513414741269121E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1134,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
